--- a/natmiOut/OldD4/LR-pairs_lrc2p/Spon2-Itga4.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Spon2-Itga4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.958603627790573</v>
+        <v>1.166127333333333</v>
       </c>
       <c r="H2">
-        <v>0.958603627790573</v>
+        <v>3.498382</v>
       </c>
       <c r="I2">
-        <v>0.1588742452219218</v>
+        <v>0.1795592107679211</v>
       </c>
       <c r="J2">
-        <v>0.1588742452219218</v>
+        <v>0.1849469123397136</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>47.174012646515</v>
+        <v>0.3680823333333333</v>
       </c>
       <c r="N2">
-        <v>47.174012646515</v>
+        <v>1.104247</v>
       </c>
       <c r="O2">
-        <v>0.4188986365712714</v>
+        <v>0.002753916244137746</v>
       </c>
       <c r="P2">
-        <v>0.4188986365712714</v>
+        <v>0.002775263739301222</v>
       </c>
       <c r="Q2">
-        <v>45.22117966038765</v>
+        <v>0.4292308698171111</v>
       </c>
       <c r="R2">
-        <v>45.22117966038765</v>
+        <v>3.863077828354</v>
       </c>
       <c r="S2">
-        <v>0.06655220470975289</v>
+        <v>0.0004944910273183312</v>
       </c>
       <c r="T2">
-        <v>0.06655220470975289</v>
+        <v>0.000513276459512129</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>26</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.958603627790573</v>
+        <v>1.166127333333333</v>
       </c>
       <c r="H3">
-        <v>0.958603627790573</v>
+        <v>3.498382</v>
       </c>
       <c r="I3">
-        <v>0.1588742452219218</v>
+        <v>0.1795592107679211</v>
       </c>
       <c r="J3">
-        <v>0.1588742452219218</v>
+        <v>0.1849469123397136</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>62.4380552209324</v>
+        <v>67.415553</v>
       </c>
       <c r="N3">
-        <v>62.4380552209324</v>
+        <v>202.246659</v>
       </c>
       <c r="O3">
-        <v>0.5544412004591804</v>
+        <v>0.5043892893009331</v>
       </c>
       <c r="P3">
-        <v>0.5544412004591804</v>
+        <v>0.508299156907394</v>
       </c>
       <c r="Q3">
-        <v>59.85334624697392</v>
+        <v>78.615119045082</v>
       </c>
       <c r="R3">
-        <v>59.85334624697392</v>
+        <v>707.536071405738</v>
       </c>
       <c r="S3">
-        <v>0.08808642724288854</v>
+        <v>0.09056774270666819</v>
       </c>
       <c r="T3">
-        <v>0.08808642724288854</v>
+        <v>0.09400835961490216</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,123 +649,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.958603627790573</v>
+        <v>1.166127333333333</v>
       </c>
       <c r="H4">
-        <v>0.958603627790573</v>
+        <v>3.498382</v>
       </c>
       <c r="I4">
-        <v>0.1588742452219218</v>
+        <v>0.1795592107679211</v>
       </c>
       <c r="J4">
-        <v>0.1588742452219218</v>
+        <v>0.1849469123397136</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.0023178766533</v>
+        <v>62.78983433333334</v>
       </c>
       <c r="N4">
-        <v>3.0023178766533</v>
+        <v>188.369503</v>
       </c>
       <c r="O4">
-        <v>0.02666016296954829</v>
+        <v>0.4697806144928208</v>
       </c>
       <c r="P4">
-        <v>0.02666016296954829</v>
+        <v>0.473422206504607</v>
       </c>
       <c r="Q4">
-        <v>2.878032808340343</v>
+        <v>73.22094207157178</v>
       </c>
       <c r="R4">
-        <v>2.878032808340343</v>
+        <v>658.988478644146</v>
       </c>
       <c r="S4">
-        <v>0.004235613269280414</v>
+        <v>0.08435343637239991</v>
       </c>
       <c r="T4">
-        <v>0.004235613269280414</v>
+        <v>0.08755797532608137</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.51785709451082</v>
+        <v>1.166127333333333</v>
       </c>
       <c r="H5">
-        <v>4.51785709451082</v>
+        <v>3.498382</v>
       </c>
       <c r="I5">
-        <v>0.7487673894634199</v>
+        <v>0.1795592107679211</v>
       </c>
       <c r="J5">
-        <v>0.7487673894634199</v>
+        <v>0.1849469123397136</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>47.174012646515</v>
+        <v>3.084311</v>
       </c>
       <c r="N5">
-        <v>47.174012646515</v>
+        <v>6.168622</v>
       </c>
       <c r="O5">
-        <v>0.4188986365712714</v>
+        <v>0.0230761799621083</v>
       </c>
       <c r="P5">
-        <v>0.4188986365712714</v>
+        <v>0.0155033728486976</v>
       </c>
       <c r="Q5">
-        <v>213.1254477116009</v>
+        <v>3.596699361600666</v>
       </c>
       <c r="R5">
-        <v>213.1254477116009</v>
+        <v>21.580196169604</v>
       </c>
       <c r="S5">
-        <v>0.3136576385552568</v>
+        <v>0.004143540661534682</v>
       </c>
       <c r="T5">
-        <v>0.3136576385552568</v>
+        <v>0.002867300939217973</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.51785709451082</v>
+        <v>4.616901666666666</v>
       </c>
       <c r="H6">
-        <v>4.51785709451082</v>
+        <v>13.850705</v>
       </c>
       <c r="I6">
-        <v>0.7487673894634199</v>
+        <v>0.7109062584872947</v>
       </c>
       <c r="J6">
-        <v>0.7487673894634199</v>
+        <v>0.7322371094632414</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>62.4380552209324</v>
+        <v>0.3680823333333333</v>
       </c>
       <c r="N6">
-        <v>62.4380552209324</v>
+        <v>1.104247</v>
       </c>
       <c r="O6">
-        <v>0.5544412004591804</v>
+        <v>0.002753916244137746</v>
       </c>
       <c r="P6">
-        <v>0.5544412004591804</v>
+        <v>0.002775263739301222</v>
       </c>
       <c r="Q6">
-        <v>282.0862107473478</v>
+        <v>1.699399938237222</v>
       </c>
       <c r="R6">
-        <v>282.0862107473478</v>
+        <v>15.294599444135</v>
       </c>
       <c r="S6">
-        <v>0.4151474902787852</v>
+        <v>0.001957776293307348</v>
       </c>
       <c r="T6">
-        <v>0.4151474902787852</v>
+        <v>0.002032151098464074</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,185 +835,185 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.51785709451082</v>
+        <v>4.616901666666666</v>
       </c>
       <c r="H7">
-        <v>4.51785709451082</v>
+        <v>13.850705</v>
       </c>
       <c r="I7">
-        <v>0.7487673894634199</v>
+        <v>0.7109062584872947</v>
       </c>
       <c r="J7">
-        <v>0.7487673894634199</v>
+        <v>0.7322371094632414</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.0023178766533</v>
+        <v>67.415553</v>
       </c>
       <c r="N7">
-        <v>3.0023178766533</v>
+        <v>202.246659</v>
       </c>
       <c r="O7">
-        <v>0.02666016296954829</v>
+        <v>0.5043892893009331</v>
       </c>
       <c r="P7">
-        <v>0.02666016296954829</v>
+        <v>0.508299156907394</v>
       </c>
       <c r="Q7">
-        <v>13.56404311901477</v>
+        <v>311.250979004955</v>
       </c>
       <c r="R7">
-        <v>13.56404311901477</v>
+        <v>2801.258811044595</v>
       </c>
       <c r="S7">
-        <v>0.01996226062937801</v>
+        <v>0.358573502477992</v>
       </c>
       <c r="T7">
-        <v>0.01996226062937801</v>
+        <v>0.3721955053964728</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.557265048993744</v>
+        <v>4.616901666666666</v>
       </c>
       <c r="H8">
-        <v>0.557265048993744</v>
+        <v>13.850705</v>
       </c>
       <c r="I8">
-        <v>0.09235836531465817</v>
+        <v>0.7109062584872947</v>
       </c>
       <c r="J8">
-        <v>0.09235836531465817</v>
+        <v>0.7322371094632414</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>47.174012646515</v>
+        <v>62.78983433333334</v>
       </c>
       <c r="N8">
-        <v>47.174012646515</v>
+        <v>188.369503</v>
       </c>
       <c r="O8">
-        <v>0.4188986365712714</v>
+        <v>0.4697806144928208</v>
       </c>
       <c r="P8">
-        <v>0.4188986365712714</v>
+        <v>0.473422206504607</v>
       </c>
       <c r="Q8">
-        <v>26.28842846869168</v>
+        <v>289.8944907832906</v>
       </c>
       <c r="R8">
-        <v>26.28842846869168</v>
+        <v>2609.050417049615</v>
       </c>
       <c r="S8">
-        <v>0.03868879330626171</v>
+        <v>0.3339699789589534</v>
       </c>
       <c r="T8">
-        <v>0.03868879330626171</v>
+        <v>0.3466573080466432</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.557265048993744</v>
+        <v>4.616901666666666</v>
       </c>
       <c r="H9">
-        <v>0.557265048993744</v>
+        <v>13.850705</v>
       </c>
       <c r="I9">
-        <v>0.09235836531465817</v>
+        <v>0.7109062584872947</v>
       </c>
       <c r="J9">
-        <v>0.09235836531465817</v>
+        <v>0.7322371094632414</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>62.4380552209324</v>
+        <v>3.084311</v>
       </c>
       <c r="N9">
-        <v>62.4380552209324</v>
+        <v>6.168622</v>
       </c>
       <c r="O9">
-        <v>0.5544412004591804</v>
+        <v>0.0230761799621083</v>
       </c>
       <c r="P9">
-        <v>0.5544412004591804</v>
+        <v>0.0155033728486976</v>
       </c>
       <c r="Q9">
-        <v>34.79454590176698</v>
+        <v>14.23996059641833</v>
       </c>
       <c r="R9">
-        <v>34.79454590176698</v>
+        <v>85.43976357851</v>
       </c>
       <c r="S9">
-        <v>0.05120728293750661</v>
+        <v>0.01640500075704189</v>
       </c>
       <c r="T9">
-        <v>0.05120728293750661</v>
+        <v>0.01135214492166123</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,495 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.1437943333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.431383</v>
+      </c>
+      <c r="I10">
+        <v>0.02214131876355931</v>
+      </c>
+      <c r="J10">
+        <v>0.02280567241823296</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.3680823333333333</v>
+      </c>
+      <c r="N10">
+        <v>1.104247</v>
+      </c>
+      <c r="O10">
+        <v>0.002753916244137746</v>
+      </c>
+      <c r="P10">
+        <v>0.002775263739301222</v>
+      </c>
+      <c r="Q10">
+        <v>0.05292815373344444</v>
+      </c>
+      <c r="R10">
+        <v>0.4763533836009999</v>
+      </c>
+      <c r="S10">
+        <v>6.097533740959784E-05</v>
+      </c>
+      <c r="T10">
+        <v>6.329175571270395E-05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.1437943333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.431383</v>
+      </c>
+      <c r="I11">
+        <v>0.02214131876355931</v>
+      </c>
+      <c r="J11">
+        <v>0.02280567241823296</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>67.415553</v>
+      </c>
+      <c r="N11">
+        <v>202.246659</v>
+      </c>
+      <c r="O11">
+        <v>0.5043892893009331</v>
+      </c>
+      <c r="P11">
+        <v>0.508299156907394</v>
+      </c>
+      <c r="Q11">
+        <v>9.693974499933001</v>
+      </c>
+      <c r="R11">
+        <v>87.24577049939698</v>
+      </c>
+      <c r="S11">
+        <v>0.01116784403533709</v>
+      </c>
+      <c r="T11">
+        <v>0.01159210406289403</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.1437943333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.431383</v>
+      </c>
+      <c r="I12">
+        <v>0.02214131876355931</v>
+      </c>
+      <c r="J12">
+        <v>0.02280567241823296</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>62.78983433333334</v>
+      </c>
+      <c r="N12">
+        <v>188.369503</v>
+      </c>
+      <c r="O12">
+        <v>0.4697806144928208</v>
+      </c>
+      <c r="P12">
+        <v>0.473422206504607</v>
+      </c>
+      <c r="Q12">
+        <v>9.028822368072111</v>
+      </c>
+      <c r="R12">
+        <v>81.25940131264899</v>
+      </c>
+      <c r="S12">
+        <v>0.01040156233442631</v>
+      </c>
+      <c r="T12">
+        <v>0.01079671175706111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.1437943333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.431383</v>
+      </c>
+      <c r="I13">
+        <v>0.02214131876355931</v>
+      </c>
+      <c r="J13">
+        <v>0.02280567241823296</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>3.084311</v>
+      </c>
+      <c r="N13">
+        <v>6.168622</v>
+      </c>
+      <c r="O13">
+        <v>0.0230761799621083</v>
+      </c>
+      <c r="P13">
+        <v>0.0155033728486976</v>
+      </c>
+      <c r="Q13">
+        <v>0.4435064440376666</v>
+      </c>
+      <c r="R13">
+        <v>2.661038664226</v>
+      </c>
+      <c r="S13">
+        <v>0.0005109370563862998</v>
+      </c>
+      <c r="T13">
+        <v>0.0003535648425651248</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.5675655000000001</v>
+      </c>
+      <c r="H14">
+        <v>1.135131</v>
+      </c>
+      <c r="I14">
+        <v>0.08739321198122495</v>
+      </c>
+      <c r="J14">
+        <v>0.06001030577881189</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.3680823333333333</v>
+      </c>
+      <c r="N14">
+        <v>1.104247</v>
+      </c>
+      <c r="O14">
+        <v>0.002753916244137746</v>
+      </c>
+      <c r="P14">
+        <v>0.002775263739301222</v>
+      </c>
+      <c r="Q14">
+        <v>0.2089108335595</v>
+      </c>
+      <c r="R14">
+        <v>1.253465001357</v>
+      </c>
+      <c r="S14">
+        <v>0.0002406735861024688</v>
+      </c>
+      <c r="T14">
+        <v>0.0001665444256123152</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.5675655000000001</v>
+      </c>
+      <c r="H15">
+        <v>1.135131</v>
+      </c>
+      <c r="I15">
+        <v>0.08739321198122495</v>
+      </c>
+      <c r="J15">
+        <v>0.06001030577881189</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>67.415553</v>
+      </c>
+      <c r="N15">
+        <v>202.246659</v>
+      </c>
+      <c r="O15">
+        <v>0.5043892893009331</v>
+      </c>
+      <c r="P15">
+        <v>0.508299156907394</v>
+      </c>
+      <c r="Q15">
+        <v>38.2627420462215</v>
+      </c>
+      <c r="R15">
+        <v>229.576452277329</v>
+      </c>
+      <c r="S15">
+        <v>0.04408020008093584</v>
+      </c>
+      <c r="T15">
+        <v>0.030503187833125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.557265048993744</v>
-      </c>
-      <c r="H10">
-        <v>0.557265048993744</v>
-      </c>
-      <c r="I10">
-        <v>0.09235836531465817</v>
-      </c>
-      <c r="J10">
-        <v>0.09235836531465817</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>3.0023178766533</v>
-      </c>
-      <c r="N10">
-        <v>3.0023178766533</v>
-      </c>
-      <c r="O10">
-        <v>0.02666016296954829</v>
-      </c>
-      <c r="P10">
-        <v>0.02666016296954829</v>
-      </c>
-      <c r="Q10">
-        <v>1.673086818627995</v>
-      </c>
-      <c r="R10">
-        <v>1.673086818627995</v>
-      </c>
-      <c r="S10">
-        <v>0.002462289070889863</v>
-      </c>
-      <c r="T10">
-        <v>0.002462289070889863</v>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.5675655000000001</v>
+      </c>
+      <c r="H16">
+        <v>1.135131</v>
+      </c>
+      <c r="I16">
+        <v>0.08739321198122495</v>
+      </c>
+      <c r="J16">
+        <v>0.06001030577881189</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>62.78983433333334</v>
+      </c>
+      <c r="N16">
+        <v>188.369503</v>
+      </c>
+      <c r="O16">
+        <v>0.4697806144928208</v>
+      </c>
+      <c r="P16">
+        <v>0.473422206504607</v>
+      </c>
+      <c r="Q16">
+        <v>35.63734371831551</v>
+      </c>
+      <c r="R16">
+        <v>213.824062309893</v>
+      </c>
+      <c r="S16">
+        <v>0.0410556368270412</v>
+      </c>
+      <c r="T16">
+        <v>0.0284102113748213</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.5675655000000001</v>
+      </c>
+      <c r="H17">
+        <v>1.135131</v>
+      </c>
+      <c r="I17">
+        <v>0.08739321198122495</v>
+      </c>
+      <c r="J17">
+        <v>0.06001030577881189</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>3.084311</v>
+      </c>
+      <c r="N17">
+        <v>6.168622</v>
+      </c>
+      <c r="O17">
+        <v>0.0230761799621083</v>
+      </c>
+      <c r="P17">
+        <v>0.0155033728486976</v>
+      </c>
+      <c r="Q17">
+        <v>1.7505485148705</v>
+      </c>
+      <c r="R17">
+        <v>7.002194059482001</v>
+      </c>
+      <c r="S17">
+        <v>0.002016701487145426</v>
+      </c>
+      <c r="T17">
+        <v>0.0009303621452532733</v>
       </c>
     </row>
   </sheetData>
